--- a/organized/allDataAnalysis3.xlsx
+++ b/organized/allDataAnalysis3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis 3" sheetId="2" r:id="rId1"/>
@@ -101,17 +101,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2648,7 +2652,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3006,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5209,6 +5213,10 @@
       </c>
     </row>
     <row r="37" spans="1:40">
+      <c r="C37">
+        <f>C36^2</f>
+        <v>1.6953537278356847E-3</v>
+      </c>
       <c r="E37">
         <f>E36^2</f>
         <v>8.8424949362395214E-2</v>

--- a/organized/allDataAnalysis3.xlsx
+++ b/organized/allDataAnalysis3.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14625" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis 3" sheetId="2" r:id="rId1"/>
     <sheet name="allDataAnalysis3.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>risk: 0</t>
   </si>
@@ -54,12 +60,27 @@
   <si>
     <t>risk: 1.0</t>
   </si>
+  <si>
+    <t>RiskAversion</t>
+  </si>
+  <si>
+    <t>R-Squared Value</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Man/NonMan Ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +100,20 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,8 +143,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -120,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +237,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="27.0"/>
+            <c:forward val="27"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -198,244 +248,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>49.8563097088813</c:v>
+                  <c:v>49.856309708881298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.8911844514527</c:v>
+                  <c:v>72.891184451452702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0418898640954</c:v>
+                  <c:v>50.041889864095403</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>49.21875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.517882453449</c:v>
+                  <c:v>31.517882453449001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48.702260740682</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.8260869565217</c:v>
+                  <c:v>47.826086956521699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.3150684931506</c:v>
+                  <c:v>49.315068493150598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.0324118623781</c:v>
+                  <c:v>61.032411862378098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.843628043693</c:v>
+                  <c:v>30.843628043692998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.9737245538945</c:v>
+                  <c:v>42.973724553894499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>41.039472379692</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53.9819564146752</c:v>
+                  <c:v>53.981956414675203</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.9277456647398</c:v>
+                  <c:v>49.927745664739803</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.74099882105369</c:v>
+                  <c:v>74.740998821053694</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.7717152889566</c:v>
+                  <c:v>49.771715288956599</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>58.5670188106566</c:v>
+                  <c:v>58.567018810656599</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>55.6156612170968</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48.6863014193842</c:v>
+                  <c:v>48.686301419384201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.2184364608466</c:v>
+                  <c:v>50.218436460846597</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>49.9925814810428</c:v>
+                  <c:v>49.992581481042798</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>49.8076923076923</c:v>
+                  <c:v>49.807692307692299</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.4740651970351</c:v>
+                  <c:v>41.474065197035102</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44.5331225947415</c:v>
+                  <c:v>44.533122594741499</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.4606666607307</c:v>
+                  <c:v>40.460666660730702</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.5362864003644</c:v>
+                  <c:v>45.536286400364403</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,244 +497,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,7 +761,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -722,244 +772,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.740087753082</c:v>
+                  <c:v>29.740087753082001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.0889144143386</c:v>
+                  <c:v>73.088914414338603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.4935081593991</c:v>
+                  <c:v>48.493508159399099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.3593659133207</c:v>
+                  <c:v>39.359365913320701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.2248311899499</c:v>
+                  <c:v>37.224831189949903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.0268907656185</c:v>
+                  <c:v>49.026890765618496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.2760357392663</c:v>
+                  <c:v>27.276035739266302</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>27.7032012245479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.1329210706975</c:v>
+                  <c:v>47.132921070697499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.3791913479644</c:v>
+                  <c:v>48.379191347964401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.1863034696548</c:v>
+                  <c:v>46.186303469654803</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.9767176117339</c:v>
+                  <c:v>49.976717611733903</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.6829481092279</c:v>
+                  <c:v>51.682948109227901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.3649703450811</c:v>
+                  <c:v>39.364970345081097</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.1773968945741</c:v>
+                  <c:v>34.177396894574102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53.6004938796106</c:v>
+                  <c:v>53.600493879610603</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66.4882056045744</c:v>
+                  <c:v>66.488205604574404</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.5748679856969</c:v>
+                  <c:v>33.574867985696898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61.0324118623781</c:v>
+                  <c:v>61.032411862378098</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.843628043693</c:v>
+                  <c:v>30.843628043692998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.9737245538945</c:v>
+                  <c:v>42.973724553894499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>41.039472379692</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.4740651970351</c:v>
+                  <c:v>41.474065197035102</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44.5331225947415</c:v>
+                  <c:v>44.533122594741499</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.4606666607307</c:v>
+                  <c:v>40.460666660730702</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.5362864003644</c:v>
+                  <c:v>45.536286400364403</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,244 +1021,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,7 +1285,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1246,244 +1296,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0324118623781</c:v>
+                  <c:v>61.032411862378098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.843628043693</c:v>
+                  <c:v>30.843628043692998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.9737245538945</c:v>
+                  <c:v>42.973724553894499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41.039472379692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.4740651970351</c:v>
+                  <c:v>41.474065197035102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.5331225947415</c:v>
+                  <c:v>44.533122594741499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.4606666607307</c:v>
+                  <c:v>40.460666660730702</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.5362864003644</c:v>
+                  <c:v>45.536286400364403</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.2665897085796</c:v>
+                  <c:v>38.266589708579602</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>41.8402772935165</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>73.04586757725021</c:v>
+                  <c:v>73.045867577250206</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.4478752685209</c:v>
+                  <c:v>36.447875268520903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.9676774631619</c:v>
+                  <c:v>40.967677463161898</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.8446072392912</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49.0424768288961</c:v>
+                  <c:v>49.042476828896099</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41.3369058430092</c:v>
+                  <c:v>41.336905843009198</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.2138374935977</c:v>
+                  <c:v>32.213837493597701</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42.2824358063184</c:v>
+                  <c:v>42.282435806318396</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>49.8033122657429</c:v>
+                  <c:v>49.803312265742903</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>68.93813259459939</c:v>
+                  <c:v>68.938132594599395</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27.5413994286061</c:v>
+                  <c:v>27.541399428606098</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>31.0192449332352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62.7609837431339</c:v>
+                  <c:v>62.760983743133899</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>55.2447126341034</c:v>
+                  <c:v>55.244712634103401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>47.7219050884762</c:v>
+                  <c:v>47.721905088476198</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>49.6434630767076</c:v>
+                  <c:v>49.643463076707597</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.0028140693035</c:v>
+                  <c:v>47.002814069303497</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51.0662329424209</c:v>
+                  <c:v>51.066232942420903</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>51.5201692876342</c:v>
+                  <c:v>51.520169287634197</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>34.8927491550859</c:v>
+                  <c:v>34.892749155085902</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,244 +1545,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,7 +1809,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35.0"/>
+            <c:forward val="35"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1770,244 +1820,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.1484225875956</c:v>
+                  <c:v>38.148422587595597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.206488549666</c:v>
+                  <c:v>41.206488549665998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.7435983378434</c:v>
+                  <c:v>31.743598337843402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.8035102524112</c:v>
+                  <c:v>28.803510252411201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.8963312574568</c:v>
+                  <c:v>40.896331257456801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.0475583624093</c:v>
+                  <c:v>48.047558362409298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.0581047798839</c:v>
+                  <c:v>30.058104779883902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.9480109743529</c:v>
+                  <c:v>42.948010974352897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.8510299820254</c:v>
+                  <c:v>25.851029982025398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.5114321778013</c:v>
+                  <c:v>69.511432177801296</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.1922050862168</c:v>
+                  <c:v>42.192205086216802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.1390490384781</c:v>
+                  <c:v>50.139049038478099</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.5029166148249</c:v>
+                  <c:v>53.502916614824898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.912550756299</c:v>
+                  <c:v>51.912550756298998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55.947196153654</c:v>
+                  <c:v>55.947196153653998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.654297563642</c:v>
+                  <c:v>59.654297563641997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49.3227178824994</c:v>
+                  <c:v>49.322717882499397</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61.0324118623781</c:v>
+                  <c:v>61.032411862378098</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.843628043693</c:v>
+                  <c:v>30.843628043692998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.9737245538945</c:v>
+                  <c:v>42.973724553894499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>41.039472379692</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.4740651970351</c:v>
+                  <c:v>41.474065197035102</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44.5331225947415</c:v>
+                  <c:v>44.533122594741499</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.4606666607307</c:v>
+                  <c:v>40.460666660730702</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.5362864003644</c:v>
+                  <c:v>45.536286400364403</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,244 +2069,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +2333,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="40.0"/>
+            <c:forward val="40"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2294,124 +2344,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0324118623781</c:v>
+                  <c:v>61.032411862378098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.843628043693</c:v>
+                  <c:v>30.843628043692998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.9737245538945</c:v>
+                  <c:v>42.973724553894499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41.039472379692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.4740651970351</c:v>
+                  <c:v>41.474065197035102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.5331225947415</c:v>
+                  <c:v>44.533122594741499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.4606666607307</c:v>
+                  <c:v>40.460666660730702</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.5362864003644</c:v>
+                  <c:v>45.536286400364403</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,124 +2473,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,14 +2605,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083959208"/>
-        <c:axId val="2084283848"/>
+        <c:axId val="-567909392"/>
+        <c:axId val="-567907760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083959208"/>
+        <c:axId val="-567909392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2589,15 +2639,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084283848"/>
+        <c:crossAx val="-567907760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084283848"/>
+        <c:axId val="-567907760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2631,7 +2681,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083959208"/>
+        <c:crossAx val="-567909392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2652,7 +2702,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2663,7 +2713,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564071" cy="5821770"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3010,23 +3060,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.258874979559376</v>
       </c>
@@ -3060,17 +3110,20 @@
         <v>0.13409607188804601</v>
       </c>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4^2</f>
         <v>4.5601906859370392E-2</v>
       </c>
+      <c r="D5">
+        <v>5.7177048531536399E-2</v>
+      </c>
       <c r="E5">
         <f>E4^2</f>
         <v>1.7981756495804004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49.856309708881298</v>
       </c>
@@ -3312,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>62</v>
       </c>
@@ -3554,17 +3607,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3581,7 +3634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.165060915445877</v>
       </c>
@@ -3598,17 +3651,20 @@
         <v>0.16053357802893201</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C12^2</f>
         <v>1.3372583083443829E-2</v>
       </c>
+      <c r="D13">
+        <v>0.30703288141061802</v>
+      </c>
       <c r="E13">
         <f>E12^2</f>
         <v>2.5771029674771202E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3850,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66</v>
       </c>
@@ -4092,17 +4148,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4119,7 +4175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-2.33981278236923E-2</v>
       </c>
@@ -4136,17 +4192,20 @@
         <v>0.14806569890049701</v>
       </c>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>C20^2</f>
         <v>3.2005135856668976E-4</v>
       </c>
+      <c r="D21">
+        <v>0.87484525183488604</v>
+      </c>
       <c r="E21">
         <f>E20^2</f>
         <v>2.1923451190892639E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4388,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>27</v>
       </c>
@@ -4630,17 +4689,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:80">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.94727169154199E-4</v>
       </c>
@@ -4674,17 +4733,20 @@
         <v>0.15586206331347</v>
       </c>
     </row>
-    <row r="29" spans="1:80">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C28^2</f>
         <v>4.5842139725673848E-8</v>
       </c>
+      <c r="D29">
+        <v>0.99849607001059304</v>
+      </c>
       <c r="E29">
         <f>E28^2</f>
         <v>2.429298278033213E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:80">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4926,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:80">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>81</v>
       </c>
@@ -5168,17 +5230,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5195,7 +5257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.5540146853767504E-2</v>
       </c>
@@ -5212,17 +5274,20 @@
         <v>0.29736332887966399</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>C36^2</f>
         <v>1.6953537278356847E-3</v>
       </c>
+      <c r="D37">
+        <v>0.80083951633412698</v>
+      </c>
       <c r="E37">
         <f>E36^2</f>
         <v>8.8424949362395214E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5344,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>27</v>
       </c>
@@ -5474,4 +5539,127 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.5601906859370392E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.7177048531536399E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.7981756495804004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.3372583083443829E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.30703288141061802</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5771029674771202E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2005135856668976E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.87484525183488604</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.1923451190892639E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.5842139725673848E-8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99849607001059304</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.429298278033213E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.6953537278356847E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.80083951633412698</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.8424949362395214E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>